--- a/data/users_to_message.xlsx
+++ b/data/users_to_message.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasr\Desktop\insta bot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\scripts\insta_bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,106 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>asdfhjklkomkk</t>
-  </si>
-  <si>
-    <t>ebad0105</t>
-  </si>
-  <si>
-    <t>thebestme08</t>
-  </si>
-  <si>
-    <t>brinalynn55</t>
-  </si>
-  <si>
-    <t>king.cairo.510</t>
-  </si>
-  <si>
-    <t>takerisksgetrewards</t>
-  </si>
-  <si>
-    <t>pinkelephants333</t>
-  </si>
-  <si>
-    <t>olgawerst</t>
-  </si>
-  <si>
-    <t>edwardhernandez6324</t>
-  </si>
-  <si>
-    <t>muhkvi</t>
-  </si>
-  <si>
-    <t>rikarubi</t>
-  </si>
-  <si>
-    <t>imustafaismail</t>
-  </si>
-  <si>
-    <t>nancybrook855</t>
-  </si>
-  <si>
-    <t>blessed_shoegame</t>
-  </si>
-  <si>
-    <t>iamfrankjones</t>
-  </si>
-  <si>
-    <t>chariaxashlynn</t>
-  </si>
-  <si>
-    <t>food_dessert_travel</t>
-  </si>
-  <si>
-    <t>mike.murph</t>
-  </si>
-  <si>
-    <t>shonybaby1</t>
-  </si>
-  <si>
-    <t>sahil_sandhu4</t>
-  </si>
-  <si>
-    <t>alba_garcia_29</t>
-  </si>
-  <si>
-    <t>bhl.xo</t>
-  </si>
-  <si>
-    <t>rathebarber_</t>
-  </si>
-  <si>
-    <t>beth1630</t>
-  </si>
-  <si>
-    <t>mzz.cherryyy16</t>
-  </si>
-  <si>
-    <t>karlalonsolis</t>
-  </si>
-  <si>
-    <t>ericachasco</t>
-  </si>
-  <si>
-    <t>nbradstreet08</t>
-  </si>
-  <si>
-    <t>thehauteexperience_</t>
-  </si>
-  <si>
-    <t>saragarcia2650</t>
-  </si>
-  <si>
-    <t>bodycare.cult</t>
-  </si>
-  <si>
-    <t>777jdr</t>
-  </si>
-  <si>
-    <t>jlc_847</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>users</t>
   </si>
@@ -455,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -465,173 +368,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
